--- a/database/capsules_spreadsheets/Spring 2022 Capsules.xlsx
+++ b/database/capsules_spreadsheets/Spring 2022 Capsules.xlsx
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="360">
   <si>
     <t>title</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>public notes</t>
+  </si>
+  <si>
+    <t>ticketing url</t>
   </si>
   <si>
     <t>slot</t>
@@ -186,9 +189,6 @@
     <t>DCP // Digital // DCP</t>
   </si>
   <si>
-    <t>Part of a screening of MONANGAMBEE, A DESSERT FOR CONSTANCE, and LEON G DAMAS. Sponsored by South Side Projections and Arts + Public Life.</t>
-  </si>
-  <si>
     <t>Monday</t>
   </si>
   <si>
@@ -288,9 +288,6 @@
     <t xml:space="preserve">In _Two Faces of a Bamiléké Woman_, writer-director Rosine Mbakam composes an intimate documentary account of life from a woman's perspective in Cameroon. Told through interactions with her mother, Mbakam traces the different cultures in the village she was born in and the capital city, Yaoundé. The women recount horrific tales from the French colonial war and from their arranged marriages, but Mbakam finds solidarity in their shared struggle. </t>
   </si>
   <si>
-    <t>Sponsored by South Side Projection and Arts + Public Life</t>
-  </si>
-  <si>
     <t>One False Move</t>
   </si>
   <si>
@@ -567,7 +564,7 @@
     <t>16mm // Digital</t>
   </si>
   <si>
-    <t>Sponsored by South Side Projection and Arts + Public Life. With introductory remarks by the director Yvonne Welbon.</t>
+    <t>With introductory remarks by the director Yvonne Welbon.</t>
   </si>
   <si>
     <t>Star Time</t>
@@ -861,7 +858,7 @@
     <t>2005 // 1979 // 1989</t>
   </si>
   <si>
-    <t>_An Open Window_ is a film about mental illness among Dakar’s street wanderers. After shooting, Sylla fell ill, “seeing what others don’t see—the dislocated eye, the ancientness of the glass bubble, a sky descended too low, a horizon far too near. I was living the experience from the inside.” Fronza Wood’s _Killing Time_ is a dark comedy about finding the right outfit to commit suicide in. The New Yorker calls it “among the best short films ever made." After becoming the first Black woman in the New York camera operators' union, Jessie Maple turned to directing. In _Twice As Nice_, twin basketball players compete to become the first woman in the “MBA.” The film stars real-life powerhouses Pamela and Paula McGhee, who led USC to back-to-back NCAA championships in the 1980s, and Cynthia Cooper-Dyke. Preceded by Onwurah’s Coffee Coloured Children, an affecting meditation on internalized racism.</t>
+    <t>_An Open Window_ is a film about mental illness among Dakar’s street wanderers. After shooting, Sylla fell ill, “seeing what others don’t see—the dislocated eye, the ancientness of the glass bubble, a sky descended too low, a horizon far too near. I was living the experience from the inside.” Fronza Wood’s _Killing Time_ is a dark comedy about finding the right outfit to commit suicide in. The New Yorker calls it “among the best short films ever made." After becoming the first Black woman in the New York camera operators' union, Jessie Maple turned to directing. In _Twice As Nice_, twin basketball players compete to become the first woman in the “MBA.” The film stars real-life powerhouses Pamela and Paula McGhee, who led USC to back-to-back NCAA championships in the 1980s, and Cynthia Cooper-Dyke.</t>
   </si>
   <si>
     <t>52m // 15m // 70m</t>
@@ -870,7 +867,7 @@
     <t>Digital // 16mm // DCP</t>
   </si>
   <si>
-    <t>TWICE AS NICE initial screening (on 4/11/22) cancelled due to booking issues. Sponsored by South Side Projection and Arts + Public Life. Introduction by Danielle Scruggs</t>
+    <t>TWICE AS NICE initial screening (on 4/11/22) cancelled due to booking issues. Introduction by Danielle Scruggs</t>
   </si>
   <si>
     <t>The Player</t>
@@ -1081,6 +1078,9 @@
 -Ava DuVernay
 Work by contemporary Black women directors such as Dee Rees, Nia DaCosta, and Ava DuVernay is on the rise in the past decade. These directors have received recognition and wide releases, leading to a resurrection and rebirth of work from predecessors like Julie Dash and Kasi Lemmons. But there is always more to uncover. Black women have been involved in filmmaking since the origin of the medium, and their films exist across the Black Diaspora. From documenting political resistance to personal struggle, the short and feature-length films in this series demonstrate the myriad aesthetics employed by Black women directors to tell their stories over the past five decades. In “An Open Window,” we invite you to take a glimpse into work that has often been left unseen.
 </t>
+  </si>
+  <si>
+    <t>Sponsored by South Side Projection and Arts + Public Life</t>
   </si>
   <si>
     <t>Neo-Noir ‘92</t>
@@ -1707,8 +1707,8 @@
     <col customWidth="1" min="12" max="12" width="11.63"/>
     <col customWidth="1" min="13" max="14" width="12.75"/>
     <col customWidth="1" min="15" max="16" width="9.0"/>
-    <col customWidth="1" min="17" max="18" width="39.13"/>
-    <col customWidth="1" min="19" max="19" width="23.13"/>
+    <col customWidth="1" min="17" max="19" width="39.13"/>
+    <col customWidth="1" min="20" max="20" width="23.13"/>
   </cols>
   <sheetData>
     <row r="1" ht="33.75" customHeight="1">
@@ -1769,38 +1769,41 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2" ht="65.25" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" s="5">
         <f t="shared" ref="B2:B74" si="1">len(H2)</f>
         <v>495</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G2" s="10">
         <v>1990.0</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K2" s="14">
         <v>42457.0</v>
@@ -1815,38 +1818,39 @@
       <c r="Q2" s="17"/>
       <c r="R2" s="17"/>
       <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
     </row>
     <row r="3" ht="101.25" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" s="5">
         <f t="shared" si="1"/>
         <v>477</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G3" s="19">
         <v>1934.0</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K3" s="14">
         <v>42458.0</v>
@@ -1861,38 +1865,39 @@
       <c r="Q3" s="21"/>
       <c r="R3" s="21"/>
       <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
     </row>
     <row r="4">
       <c r="A4" s="22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" s="5">
         <f t="shared" si="1"/>
         <v>445</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K4" s="28">
         <v>44648.0</v>
@@ -1905,10 +1910,9 @@
       <c r="O4" s="30"/>
       <c r="P4" s="30"/>
       <c r="Q4" s="25"/>
-      <c r="R4" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="S4" s="25" t="s">
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1927,7 +1931,7 @@
         <v>45</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5" s="22" t="s">
         <v>46</v>
@@ -1955,7 +1959,7 @@
       <c r="O5" s="34"/>
       <c r="P5" s="34"/>
       <c r="Q5" s="35"/>
-      <c r="S5" s="25" t="s">
+      <c r="T5" s="25" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1969,10 +1973,10 @@
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6" s="24" t="s">
         <v>52</v>
@@ -1987,7 +1991,7 @@
         <v>54</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K6" s="28">
         <v>44651.0</v>
@@ -2001,7 +2005,8 @@
       <c r="P6" s="33"/>
       <c r="Q6" s="35"/>
       <c r="R6" s="35"/>
-      <c r="S6" s="25" t="s">
+      <c r="S6" s="35"/>
+      <c r="T6" s="25" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2020,7 +2025,7 @@
         <v>45</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F7" s="22" t="s">
         <v>58</v>
@@ -2035,7 +2040,7 @@
         <v>60</v>
       </c>
       <c r="J7" s="24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K7" s="28">
         <v>44651.0</v>
@@ -2049,7 +2054,8 @@
       <c r="P7" s="34"/>
       <c r="Q7" s="37"/>
       <c r="R7" s="37"/>
-      <c r="S7" s="25" t="s">
+      <c r="S7" s="37"/>
+      <c r="T7" s="25" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2068,7 +2074,7 @@
         <v>45</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>64</v>
@@ -2080,7 +2086,7 @@
         <v>65</v>
       </c>
       <c r="I8" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J8" s="24" t="s">
         <v>49</v>
@@ -2097,7 +2103,8 @@
       <c r="P8" s="30"/>
       <c r="Q8" s="35"/>
       <c r="R8" s="35"/>
-      <c r="S8" s="25" t="s">
+      <c r="S8" s="35"/>
+      <c r="T8" s="25" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2139,7 +2146,8 @@
       <c r="P9" s="30"/>
       <c r="Q9" s="35"/>
       <c r="R9" s="35"/>
-      <c r="S9" s="25" t="s">
+      <c r="S9" s="35"/>
+      <c r="T9" s="25" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2158,7 +2166,7 @@
         <v>45</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>73</v>
@@ -2170,7 +2178,7 @@
         <v>74</v>
       </c>
       <c r="I10" s="26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J10" s="24" t="s">
         <v>49</v>
@@ -2186,16 +2194,15 @@
       <c r="O10" s="34"/>
       <c r="P10" s="34"/>
       <c r="Q10" s="25"/>
-      <c r="R10" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="S10" s="25" t="s">
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" s="41">
         <f t="shared" si="1"/>
@@ -2208,22 +2215,22 @@
         <v>45</v>
       </c>
       <c r="E11" s="44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F11" s="45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G11" s="46">
         <v>1992.0</v>
       </c>
       <c r="H11" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="I11" s="48" t="s">
-        <v>79</v>
-      </c>
       <c r="J11" s="43" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K11" s="49">
         <v>44656.0</v>
@@ -2237,13 +2244,14 @@
       <c r="P11" s="50"/>
       <c r="Q11" s="35"/>
       <c r="R11" s="35"/>
-      <c r="S11" s="25" t="s">
+      <c r="S11" s="35"/>
+      <c r="T11" s="25" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B12" s="5">
         <f t="shared" si="1"/>
@@ -2251,25 +2259,25 @@
       </c>
       <c r="C12" s="23"/>
       <c r="D12" s="24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G12" s="26">
         <v>1997.0</v>
       </c>
       <c r="H12" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="I12" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="I12" s="26" t="s">
-        <v>83</v>
-      </c>
       <c r="J12" s="24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K12" s="28">
         <v>44658.0</v>
@@ -2283,13 +2291,14 @@
       <c r="P12" s="53"/>
       <c r="Q12" s="35"/>
       <c r="R12" s="35"/>
-      <c r="S12" s="25" t="s">
+      <c r="S12" s="35"/>
+      <c r="T12" s="25" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B13" s="5">
         <f t="shared" si="1"/>
@@ -2301,19 +2310,19 @@
       <c r="D13" s="24"/>
       <c r="E13" s="35"/>
       <c r="F13" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G13" s="26">
         <v>1982.0</v>
       </c>
       <c r="H13" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="I13" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="I13" s="26" t="s">
+      <c r="J13" s="24" t="s">
         <v>87</v>
-      </c>
-      <c r="J13" s="24" t="s">
-        <v>88</v>
       </c>
       <c r="K13" s="28">
         <v>44658.0</v>
@@ -2327,13 +2336,14 @@
       <c r="P13" s="34"/>
       <c r="Q13" s="35"/>
       <c r="R13" s="35"/>
-      <c r="S13" s="25" t="s">
+      <c r="S13" s="35"/>
+      <c r="T13" s="25" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5">
         <f t="shared" si="1"/>
@@ -2344,7 +2354,7 @@
         <v>45</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F14" s="22" t="s">
         <v>64</v>
@@ -2353,10 +2363,10 @@
         <v>1994.0</v>
       </c>
       <c r="H14" s="55" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I14" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J14" s="24" t="s">
         <v>49</v>
@@ -2373,13 +2383,14 @@
       <c r="P14" s="30"/>
       <c r="Q14" s="37"/>
       <c r="R14" s="37"/>
-      <c r="S14" s="25" t="s">
+      <c r="S14" s="37"/>
+      <c r="T14" s="25" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B15" s="5">
         <f t="shared" si="1"/>
@@ -2389,25 +2400,25 @@
         <v>45</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G15" s="26">
         <v>2021.0</v>
       </c>
       <c r="H15" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="I15" s="26" t="s">
-        <v>94</v>
-      </c>
       <c r="J15" s="24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K15" s="28">
         <v>44660.0</v>
@@ -2421,38 +2432,39 @@
       <c r="P15" s="30"/>
       <c r="Q15" s="35"/>
       <c r="R15" s="35"/>
-      <c r="S15" s="25" t="s">
+      <c r="S15" s="35"/>
+      <c r="T15" s="25" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="5">
+        <f t="shared" si="1"/>
+        <v>456</v>
+      </c>
+      <c r="C16" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="5">
-        <f t="shared" si="1"/>
-        <v>456</v>
-      </c>
-      <c r="C16" s="23" t="s">
+      <c r="D16" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="24" t="s">
         <v>96</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>97</v>
       </c>
       <c r="G16" s="26">
         <v>1985.0</v>
       </c>
       <c r="H16" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" s="26" t="s">
         <v>98</v>
-      </c>
-      <c r="I16" s="26" t="s">
-        <v>99</v>
       </c>
       <c r="J16" s="24" t="s">
         <v>49</v>
@@ -2469,13 +2481,14 @@
       <c r="P16" s="30"/>
       <c r="Q16" s="35"/>
       <c r="R16" s="35"/>
-      <c r="S16" s="25" t="s">
-        <v>100</v>
+      <c r="S16" s="35"/>
+      <c r="T16" s="25" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B17" s="5">
         <f t="shared" si="1"/>
@@ -2488,22 +2501,22 @@
         <v>45</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G17" s="26">
         <v>1992.0</v>
       </c>
       <c r="H17" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="I17" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="I17" s="26" t="s">
-        <v>104</v>
-      </c>
       <c r="J17" s="24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K17" s="28">
         <v>44663.0</v>
@@ -2517,13 +2530,14 @@
       <c r="P17" s="30"/>
       <c r="Q17" s="35"/>
       <c r="R17" s="35"/>
-      <c r="S17" s="25" t="s">
+      <c r="S17" s="35"/>
+      <c r="T17" s="25" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="18" ht="18.0" customHeight="1">
       <c r="A18" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B18" s="5">
         <f t="shared" si="1"/>
@@ -2531,22 +2545,22 @@
       </c>
       <c r="C18" s="35"/>
       <c r="D18" s="24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G18" s="26">
         <v>1978.0</v>
       </c>
       <c r="H18" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="I18" s="26" t="s">
         <v>107</v>
-      </c>
-      <c r="I18" s="26" t="s">
-        <v>108</v>
       </c>
       <c r="J18" s="24" t="s">
         <v>49</v>
@@ -2563,15 +2577,16 @@
       <c r="P18" s="33"/>
       <c r="Q18" s="35"/>
       <c r="R18" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25" t="s">
         <v>109</v>
-      </c>
-      <c r="S18" s="25" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B19" s="5">
         <f t="shared" si="1"/>
@@ -2582,22 +2597,22 @@
         <v>45</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G19" s="26">
         <v>1969.0</v>
       </c>
       <c r="H19" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="I19" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="I19" s="26" t="s">
-        <v>114</v>
-      </c>
       <c r="J19" s="24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K19" s="28">
         <v>44665.0</v>
@@ -2611,13 +2626,14 @@
       <c r="P19" s="33"/>
       <c r="Q19" s="35"/>
       <c r="R19" s="35"/>
-      <c r="S19" s="25" t="s">
+      <c r="S19" s="35"/>
+      <c r="T19" s="25" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B20" s="5">
         <f t="shared" si="1"/>
@@ -2630,22 +2646,22 @@
         <v>45</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G20" s="26">
         <v>1994.0</v>
       </c>
       <c r="H20" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="I20" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" s="24" t="s">
         <v>117</v>
-      </c>
-      <c r="I20" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="J20" s="24" t="s">
-        <v>118</v>
       </c>
       <c r="K20" s="28">
         <v>44665.0</v>
@@ -2659,13 +2675,14 @@
       <c r="P20" s="34"/>
       <c r="Q20" s="35"/>
       <c r="R20" s="35"/>
-      <c r="S20" s="25" t="s">
+      <c r="S20" s="35"/>
+      <c r="T20" s="25" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B21" s="5">
         <f t="shared" si="1"/>
@@ -2675,10 +2692,10 @@
         <v>63</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F21" s="24" t="s">
         <v>64</v>
@@ -2687,10 +2704,10 @@
         <v>1997.0</v>
       </c>
       <c r="H21" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="I21" s="26" t="s">
         <v>120</v>
-      </c>
-      <c r="I21" s="26" t="s">
-        <v>121</v>
       </c>
       <c r="J21" s="24" t="s">
         <v>49</v>
@@ -2707,13 +2724,14 @@
       <c r="P21" s="30"/>
       <c r="Q21" s="35"/>
       <c r="R21" s="35"/>
-      <c r="S21" s="25" t="s">
+      <c r="S21" s="35"/>
+      <c r="T21" s="25" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B22" s="5">
         <f t="shared" si="1"/>
@@ -2723,22 +2741,22 @@
         <v>45</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G22" s="26">
         <v>2021.0</v>
       </c>
       <c r="H22" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="I22" s="26" t="s">
         <v>124</v>
-      </c>
-      <c r="I22" s="26" t="s">
-        <v>125</v>
       </c>
       <c r="J22" s="24" t="s">
         <v>49</v>
@@ -2755,13 +2773,14 @@
       <c r="P22" s="30"/>
       <c r="Q22" s="35"/>
       <c r="R22" s="35"/>
-      <c r="S22" s="25" t="s">
+      <c r="S22" s="35"/>
+      <c r="T22" s="25" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B23" s="5">
         <f t="shared" si="1"/>
@@ -2772,22 +2791,22 @@
         <v>45</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F23" s="61" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G23" s="26">
         <v>2009.0</v>
       </c>
       <c r="H23" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="I23" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="I23" s="26" t="s">
-        <v>129</v>
-      </c>
       <c r="J23" s="24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K23" s="28">
         <v>44668.0</v>
@@ -2801,38 +2820,39 @@
       <c r="P23" s="30"/>
       <c r="Q23" s="35"/>
       <c r="R23" s="35"/>
-      <c r="S23" s="25" t="s">
-        <v>100</v>
+      <c r="S23" s="35"/>
+      <c r="T23" s="25" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="B24" s="5">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="24" t="s">
         <v>130</v>
-      </c>
-      <c r="B24" s="5">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="24" t="s">
-        <v>131</v>
       </c>
       <c r="G24" s="26">
         <v>1982.0</v>
       </c>
       <c r="H24" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="I24" s="26" t="s">
         <v>132</v>
-      </c>
-      <c r="I24" s="26" t="s">
-        <v>133</v>
       </c>
       <c r="J24" s="24" t="s">
         <v>49</v>
@@ -2848,16 +2868,15 @@
       <c r="O24" s="34"/>
       <c r="P24" s="34"/>
       <c r="Q24" s="25"/>
-      <c r="R24" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="S24" s="25" t="s">
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B25" s="5">
         <f t="shared" si="1"/>
@@ -2867,25 +2886,25 @@
         <v>44</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G25" s="26">
         <v>1992.0</v>
       </c>
       <c r="H25" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="I25" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="I25" s="26" t="s">
-        <v>137</v>
-      </c>
       <c r="J25" s="24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K25" s="28">
         <v>44670.0</v>
@@ -2899,41 +2918,42 @@
       <c r="P25" s="30"/>
       <c r="Q25" s="35"/>
       <c r="R25" s="35"/>
-      <c r="S25" s="25" t="s">
+      <c r="S25" s="35"/>
+      <c r="T25" s="25" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="62" t="s">
+        <v>137</v>
+      </c>
+      <c r="B26" s="5">
+        <f t="shared" si="1"/>
+        <v>441</v>
+      </c>
+      <c r="C26" s="23" t="s">
         <v>138</v>
-      </c>
-      <c r="B26" s="5">
-        <f t="shared" si="1"/>
-        <v>441</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>139</v>
       </c>
       <c r="D26" s="24" t="s">
         <v>45</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G26" s="26">
         <v>1994.0</v>
       </c>
       <c r="H26" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="I26" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="I26" s="26" t="s">
-        <v>142</v>
-      </c>
       <c r="J26" s="24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K26" s="28">
         <v>44671.0</v>
@@ -2947,13 +2967,14 @@
       <c r="P26" s="29"/>
       <c r="Q26" s="37"/>
       <c r="R26" s="37"/>
-      <c r="S26" s="25" t="s">
-        <v>110</v>
+      <c r="S26" s="37"/>
+      <c r="T26" s="25" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B27" s="5">
         <f t="shared" si="1"/>
@@ -2964,22 +2985,22 @@
         <v>45</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G27" s="26">
         <v>2014.0</v>
       </c>
       <c r="H27" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="I27" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="I27" s="26" t="s">
-        <v>146</v>
-      </c>
       <c r="J27" s="24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K27" s="28">
         <v>44672.0</v>
@@ -2993,13 +3014,14 @@
       <c r="P27" s="33"/>
       <c r="Q27" s="25"/>
       <c r="R27" s="25"/>
-      <c r="S27" s="25" t="s">
+      <c r="S27" s="25"/>
+      <c r="T27" s="25" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B28" s="5">
         <f t="shared" si="1"/>
@@ -3011,19 +3033,19 @@
       <c r="D28" s="24"/>
       <c r="E28" s="35"/>
       <c r="F28" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G28" s="26">
         <v>1996.0</v>
       </c>
       <c r="H28" s="55" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I28" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J28" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K28" s="28">
         <v>44672.0</v>
@@ -3037,13 +3059,14 @@
       <c r="P28" s="34"/>
       <c r="Q28" s="35"/>
       <c r="R28" s="35"/>
-      <c r="S28" s="25" t="s">
+      <c r="S28" s="35"/>
+      <c r="T28" s="25" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B29" s="5">
         <f t="shared" si="1"/>
@@ -3054,7 +3077,7 @@
         <v>45</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F29" s="24" t="s">
         <v>64</v>
@@ -3063,10 +3086,10 @@
         <v>2013.0</v>
       </c>
       <c r="H29" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="I29" s="26" t="s">
         <v>151</v>
-      </c>
-      <c r="I29" s="26" t="s">
-        <v>152</v>
       </c>
       <c r="J29" s="24" t="s">
         <v>49</v>
@@ -3083,13 +3106,14 @@
       <c r="P29" s="30"/>
       <c r="Q29" s="35"/>
       <c r="R29" s="35"/>
-      <c r="S29" s="25" t="s">
+      <c r="S29" s="35"/>
+      <c r="T29" s="25" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B30" s="5">
         <f t="shared" si="1"/>
@@ -3099,16 +3123,16 @@
       <c r="D30" s="24"/>
       <c r="E30" s="35"/>
       <c r="F30" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G30" s="26">
         <v>2021.0</v>
       </c>
       <c r="H30" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="I30" s="26" t="s">
         <v>155</v>
-      </c>
-      <c r="I30" s="26" t="s">
-        <v>156</v>
       </c>
       <c r="J30" s="24" t="s">
         <v>49</v>
@@ -3125,43 +3149,44 @@
       <c r="P30" s="30"/>
       <c r="Q30" s="25"/>
       <c r="R30" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="S30" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="S30" s="25"/>
+      <c r="T30" s="25" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="B31" s="5">
+        <f t="shared" si="1"/>
+        <v>460</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="61" t="s">
         <v>158</v>
-      </c>
-      <c r="B31" s="5">
-        <f t="shared" si="1"/>
-        <v>460</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="D31" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="E31" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="F31" s="61" t="s">
-        <v>159</v>
       </c>
       <c r="G31" s="26">
         <v>2013.0</v>
       </c>
       <c r="H31" s="55" t="s">
+        <v>159</v>
+      </c>
+      <c r="I31" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="I31" s="26" t="s">
-        <v>161</v>
-      </c>
       <c r="J31" s="24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K31" s="28">
         <v>44675.0</v>
@@ -3175,41 +3200,42 @@
       <c r="P31" s="34"/>
       <c r="Q31" s="35"/>
       <c r="R31" s="35"/>
-      <c r="S31" s="25" t="s">
-        <v>100</v>
+      <c r="S31" s="35"/>
+      <c r="T31" s="25" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="63" t="s">
+        <v>161</v>
+      </c>
+      <c r="B32" s="5">
+        <f t="shared" si="1"/>
+        <v>456</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="B32" s="5">
-        <f t="shared" si="1"/>
-        <v>456</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="E32" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="F32" s="24" t="s">
+      <c r="G32" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="G32" s="26" t="s">
+      <c r="H32" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="H32" s="22" t="s">
+      <c r="I32" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="I32" s="26" t="s">
+      <c r="J32" s="24" t="s">
         <v>166</v>
-      </c>
-      <c r="J32" s="24" t="s">
-        <v>167</v>
       </c>
       <c r="K32" s="28">
         <v>44676.0</v>
@@ -3223,15 +3249,16 @@
       <c r="P32" s="30"/>
       <c r="Q32" s="25"/>
       <c r="R32" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="S32" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="S32" s="25"/>
+      <c r="T32" s="25" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="64" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B33" s="5">
         <f t="shared" si="1"/>
@@ -3241,22 +3268,22 @@
         <v>44</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G33" s="26">
         <v>1992.0</v>
       </c>
       <c r="H33" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="I33" s="26" t="s">
         <v>171</v>
-      </c>
-      <c r="I33" s="26" t="s">
-        <v>172</v>
       </c>
       <c r="J33" s="24" t="s">
         <v>49</v>
@@ -3273,41 +3300,42 @@
       <c r="P33" s="66"/>
       <c r="Q33" s="37"/>
       <c r="R33" s="37"/>
-      <c r="S33" s="25" t="s">
+      <c r="S33" s="37"/>
+      <c r="T33" s="25" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B34" s="5">
         <f t="shared" si="1"/>
         <v>455</v>
       </c>
       <c r="C34" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="67" t="s">
         <v>139</v>
-      </c>
-      <c r="D34" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="E34" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="F34" s="67" t="s">
-        <v>140</v>
       </c>
       <c r="G34" s="26">
         <v>1998.0</v>
       </c>
       <c r="H34" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="I34" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="I34" s="26" t="s">
-        <v>175</v>
-      </c>
       <c r="J34" s="24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K34" s="28">
         <v>44678.0</v>
@@ -3321,37 +3349,38 @@
       <c r="P34" s="33"/>
       <c r="Q34" s="37"/>
       <c r="R34" s="37"/>
-      <c r="S34" s="25" t="s">
-        <v>110</v>
+      <c r="S34" s="37"/>
+      <c r="T34" s="25" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="62" t="s">
+        <v>175</v>
+      </c>
+      <c r="B35" s="5">
+        <f t="shared" si="1"/>
+        <v>448</v>
+      </c>
+      <c r="C35" s="68" t="s">
         <v>176</v>
-      </c>
-      <c r="B35" s="5">
-        <f t="shared" si="1"/>
-        <v>448</v>
-      </c>
-      <c r="C35" s="68" t="s">
-        <v>177</v>
       </c>
       <c r="D35" s="62"/>
       <c r="E35" s="64"/>
       <c r="F35" s="62" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G35" s="69">
         <v>1974.0</v>
       </c>
       <c r="H35" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="I35" s="69" t="s">
         <v>179</v>
       </c>
-      <c r="I35" s="69" t="s">
-        <v>180</v>
-      </c>
       <c r="J35" s="62" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K35" s="70">
         <v>44679.0</v>
@@ -3365,13 +3394,14 @@
       <c r="P35" s="30"/>
       <c r="Q35" s="35"/>
       <c r="R35" s="35"/>
-      <c r="S35" s="25" t="s">
+      <c r="S35" s="35"/>
+      <c r="T35" s="25" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="71" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B36" s="5">
         <f t="shared" si="1"/>
@@ -3381,16 +3411,16 @@
       <c r="D36" s="62"/>
       <c r="E36" s="64"/>
       <c r="F36" s="72" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G36" s="69">
         <v>1991.0</v>
       </c>
       <c r="H36" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="I36" s="69" t="s">
         <v>183</v>
-      </c>
-      <c r="I36" s="69" t="s">
-        <v>184</v>
       </c>
       <c r="J36" s="62" t="s">
         <v>49</v>
@@ -3407,13 +3437,14 @@
       <c r="P36" s="30"/>
       <c r="Q36" s="35"/>
       <c r="R36" s="35"/>
-      <c r="S36" s="25" t="s">
+      <c r="S36" s="35"/>
+      <c r="T36" s="25" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B37" s="5">
         <f t="shared" si="1"/>
@@ -3423,25 +3454,25 @@
         <v>63</v>
       </c>
       <c r="D37" s="62" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E37" s="64" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F37" s="62" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G37" s="69">
         <v>1993.0</v>
       </c>
       <c r="H37" s="55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I37" s="69" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J37" s="62" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K37" s="28">
         <v>44680.0</v>
@@ -3455,36 +3486,37 @@
       <c r="P37" s="33"/>
       <c r="Q37" s="35"/>
       <c r="R37" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="S37" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="S37" s="25"/>
+      <c r="T37" s="25" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="62" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B38" s="5">
         <f t="shared" si="1"/>
         <v>454</v>
       </c>
       <c r="C38" s="68" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D38" s="62"/>
       <c r="E38" s="64"/>
       <c r="F38" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G38" s="69">
         <v>2021.0</v>
       </c>
       <c r="H38" s="55" t="s">
+        <v>190</v>
+      </c>
+      <c r="I38" s="69" t="s">
         <v>191</v>
-      </c>
-      <c r="I38" s="69" t="s">
-        <v>192</v>
       </c>
       <c r="J38" s="62" t="s">
         <v>49</v>
@@ -3501,41 +3533,42 @@
       <c r="P38" s="30"/>
       <c r="Q38" s="35"/>
       <c r="R38" s="35"/>
-      <c r="S38" s="25" t="s">
+      <c r="S38" s="35"/>
+      <c r="T38" s="25" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="62" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B39" s="5">
         <f t="shared" si="1"/>
         <v>445</v>
       </c>
       <c r="C39" s="68" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D39" s="62" t="s">
         <v>45</v>
       </c>
       <c r="E39" s="64" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F39" s="61" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G39" s="69">
         <v>1987.0</v>
       </c>
       <c r="H39" s="55" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I39" s="69" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J39" s="62" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K39" s="28">
         <v>44682.0</v>
@@ -3549,13 +3582,14 @@
       <c r="P39" s="30"/>
       <c r="Q39" s="35"/>
       <c r="R39" s="35"/>
-      <c r="S39" s="25" t="s">
-        <v>100</v>
+      <c r="S39" s="35"/>
+      <c r="T39" s="25" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="62" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B40" s="5">
         <f t="shared" si="1"/>
@@ -3566,22 +3600,22 @@
         <v>45</v>
       </c>
       <c r="E40" s="64" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F40" s="62" t="s">
+        <v>196</v>
+      </c>
+      <c r="G40" s="69" t="s">
         <v>197</v>
       </c>
-      <c r="G40" s="69" t="s">
+      <c r="H40" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="H40" s="22" t="s">
+      <c r="I40" s="69" t="s">
         <v>199</v>
       </c>
-      <c r="I40" s="69" t="s">
-        <v>200</v>
-      </c>
       <c r="J40" s="62" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K40" s="28">
         <v>44683.0</v>
@@ -3594,16 +3628,15 @@
       <c r="O40" s="30"/>
       <c r="P40" s="30"/>
       <c r="Q40" s="25"/>
-      <c r="R40" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="S40" s="25" t="s">
+      <c r="R40" s="25"/>
+      <c r="S40" s="25"/>
+      <c r="T40" s="25" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="62" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B41" s="5">
         <f t="shared" si="1"/>
@@ -3611,25 +3644,25 @@
       </c>
       <c r="C41" s="68"/>
       <c r="D41" s="62" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E41" s="64" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G41" s="69">
         <v>1992.0</v>
       </c>
       <c r="H41" s="55" t="s">
+        <v>202</v>
+      </c>
+      <c r="I41" s="69" t="s">
         <v>203</v>
       </c>
-      <c r="I41" s="69" t="s">
-        <v>204</v>
-      </c>
       <c r="J41" s="62" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K41" s="70">
         <v>44684.0</v>
@@ -3643,13 +3676,14 @@
       <c r="P41" s="29"/>
       <c r="Q41" s="37"/>
       <c r="R41" s="37"/>
-      <c r="S41" s="25" t="s">
+      <c r="S41" s="37"/>
+      <c r="T41" s="25" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B42" s="5">
         <f t="shared" si="1"/>
@@ -3660,22 +3694,22 @@
         <v>45</v>
       </c>
       <c r="E42" s="64" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F42" s="62" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G42" s="69">
         <v>1971.0</v>
       </c>
       <c r="H42" s="55" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I42" s="69" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J42" s="62" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K42" s="28">
         <v>44685.0</v>
@@ -3689,13 +3723,14 @@
       <c r="P42" s="30"/>
       <c r="Q42" s="35"/>
       <c r="R42" s="35"/>
-      <c r="S42" s="25" t="s">
-        <v>110</v>
+      <c r="S42" s="35"/>
+      <c r="T42" s="25" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="62" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B43" s="5">
         <f t="shared" si="1"/>
@@ -3706,22 +3741,22 @@
         <v>45</v>
       </c>
       <c r="E43" s="64" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F43" s="62" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G43" s="69">
         <v>1982.0</v>
       </c>
       <c r="H43" s="55" t="s">
+        <v>209</v>
+      </c>
+      <c r="I43" s="69" t="s">
         <v>210</v>
       </c>
-      <c r="I43" s="69" t="s">
-        <v>211</v>
-      </c>
       <c r="J43" s="62" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K43" s="28">
         <v>44686.0</v>
@@ -3735,13 +3770,14 @@
       <c r="P43" s="33"/>
       <c r="Q43" s="37"/>
       <c r="R43" s="37"/>
-      <c r="S43" s="25" t="s">
+      <c r="S43" s="37"/>
+      <c r="T43" s="25" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="62" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B44" s="5">
         <f t="shared" si="1"/>
@@ -3753,16 +3789,16 @@
       <c r="D44" s="62"/>
       <c r="E44" s="64"/>
       <c r="F44" s="62" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G44" s="69">
         <v>2013.0</v>
       </c>
       <c r="H44" s="73" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I44" s="69" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J44" s="62" t="s">
         <v>49</v>
@@ -3779,13 +3815,14 @@
       <c r="P44" s="33"/>
       <c r="Q44" s="35"/>
       <c r="R44" s="35"/>
-      <c r="S44" s="25" t="s">
+      <c r="S44" s="35"/>
+      <c r="T44" s="25" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="62" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B45" s="5">
         <f t="shared" si="1"/>
@@ -3796,7 +3833,7 @@
         <v>45</v>
       </c>
       <c r="E45" s="64" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F45" s="22" t="s">
         <v>64</v>
@@ -3805,10 +3842,10 @@
         <v>1988.0</v>
       </c>
       <c r="H45" s="55" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I45" s="69" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J45" s="72" t="s">
         <v>49</v>
@@ -3825,41 +3862,42 @@
       <c r="P45" s="30"/>
       <c r="Q45" s="35"/>
       <c r="R45" s="35"/>
-      <c r="S45" s="25" t="s">
+      <c r="S45" s="35"/>
+      <c r="T45" s="25" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="74" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B46" s="5">
         <f t="shared" si="1"/>
         <v>454</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D46" s="32" t="s">
         <v>45</v>
       </c>
       <c r="E46" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F46" s="61" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G46" s="26">
         <v>1989.0</v>
       </c>
       <c r="H46" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="I46" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="I46" s="26" t="s">
-        <v>220</v>
-      </c>
       <c r="J46" s="24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K46" s="70">
         <v>44688.0</v>
@@ -3873,15 +3911,16 @@
       <c r="P46" s="30"/>
       <c r="Q46" s="35"/>
       <c r="R46" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="S46" s="25" t="s">
-        <v>100</v>
+        <v>220</v>
+      </c>
+      <c r="S46" s="25"/>
+      <c r="T46" s="25" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="62" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B47" s="5">
         <f t="shared" si="1"/>
@@ -3891,22 +3930,22 @@
         <v>45</v>
       </c>
       <c r="D47" s="62" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E47" s="64" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F47" s="62" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G47" s="69">
         <v>2021.0</v>
       </c>
       <c r="H47" s="55" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I47" s="69" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J47" s="62" t="s">
         <v>49</v>
@@ -3923,41 +3962,42 @@
       <c r="P47" s="30"/>
       <c r="Q47" s="35"/>
       <c r="R47" s="35"/>
-      <c r="S47" s="25" t="s">
+      <c r="S47" s="35"/>
+      <c r="T47" s="25" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="62" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B48" s="5">
         <f t="shared" si="1"/>
         <v>452</v>
       </c>
       <c r="C48" s="68" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D48" s="62" t="s">
         <v>45</v>
       </c>
       <c r="E48" s="64" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F48" s="61" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G48" s="69">
         <v>2001.0</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I48" s="69" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J48" s="62" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K48" s="28">
         <v>44689.0</v>
@@ -3971,13 +4011,14 @@
       <c r="P48" s="30"/>
       <c r="Q48" s="35"/>
       <c r="R48" s="35"/>
-      <c r="S48" s="25" t="s">
-        <v>100</v>
+      <c r="S48" s="35"/>
+      <c r="T48" s="25" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="62" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B49" s="5">
         <f t="shared" si="1"/>
@@ -3988,22 +4029,22 @@
         <v>45</v>
       </c>
       <c r="E49" s="64" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F49" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="G49" s="69" t="s">
         <v>229</v>
       </c>
-      <c r="G49" s="69" t="s">
+      <c r="H49" s="55" t="s">
         <v>230</v>
       </c>
-      <c r="H49" s="55" t="s">
+      <c r="I49" s="69" t="s">
         <v>231</v>
       </c>
-      <c r="I49" s="69" t="s">
+      <c r="J49" s="62" t="s">
         <v>232</v>
-      </c>
-      <c r="J49" s="62" t="s">
-        <v>233</v>
       </c>
       <c r="K49" s="28">
         <v>44690.0</v>
@@ -4016,16 +4057,15 @@
       <c r="O49" s="30"/>
       <c r="P49" s="30"/>
       <c r="Q49" s="25"/>
-      <c r="R49" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="S49" s="25" t="s">
+      <c r="R49" s="25"/>
+      <c r="S49" s="25"/>
+      <c r="T49" s="25" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="62" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B50" s="5">
         <f t="shared" si="1"/>
@@ -4038,19 +4078,19 @@
         <v>45</v>
       </c>
       <c r="E50" s="64" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F50" s="62" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G50" s="69">
         <v>1992.0</v>
       </c>
       <c r="H50" s="75" t="s">
+        <v>235</v>
+      </c>
+      <c r="I50" s="69" t="s">
         <v>236</v>
-      </c>
-      <c r="I50" s="69" t="s">
-        <v>237</v>
       </c>
       <c r="J50" s="62" t="s">
         <v>49</v>
@@ -4067,13 +4107,14 @@
       <c r="P50" s="30"/>
       <c r="Q50" s="35"/>
       <c r="R50" s="35"/>
-      <c r="S50" s="25" t="s">
+      <c r="S50" s="35"/>
+      <c r="T50" s="25" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B51" s="5">
         <f t="shared" si="1"/>
@@ -4084,22 +4125,22 @@
         <v>45</v>
       </c>
       <c r="E51" s="64" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F51" s="62" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G51" s="69">
         <v>1972.0</v>
       </c>
       <c r="H51" s="55" t="s">
+        <v>238</v>
+      </c>
+      <c r="I51" s="69" t="s">
         <v>239</v>
       </c>
-      <c r="I51" s="69" t="s">
-        <v>240</v>
-      </c>
       <c r="J51" s="62" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K51" s="28">
         <v>44692.0</v>
@@ -4113,13 +4154,14 @@
       <c r="P51" s="33"/>
       <c r="Q51" s="35"/>
       <c r="R51" s="35"/>
-      <c r="S51" s="25" t="s">
-        <v>110</v>
+      <c r="S51" s="35"/>
+      <c r="T51" s="25" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="76" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B52" s="77">
         <f t="shared" si="1"/>
@@ -4130,19 +4172,19 @@
       </c>
       <c r="D52" s="79"/>
       <c r="E52" s="76" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F52" s="80" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G52" s="81">
         <v>1982.0</v>
       </c>
       <c r="H52" s="38" t="s">
+        <v>242</v>
+      </c>
+      <c r="I52" s="81" t="s">
         <v>243</v>
-      </c>
-      <c r="I52" s="81" t="s">
-        <v>244</v>
       </c>
       <c r="J52" s="76" t="s">
         <v>49</v>
@@ -4159,13 +4201,14 @@
       <c r="P52" s="30"/>
       <c r="Q52" s="83"/>
       <c r="R52" s="83"/>
-      <c r="S52" s="25" t="s">
+      <c r="S52" s="83"/>
+      <c r="T52" s="25" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="62" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B53" s="5">
         <f t="shared" si="1"/>
@@ -4177,16 +4220,16 @@
       <c r="D53" s="62"/>
       <c r="E53" s="64"/>
       <c r="F53" s="62" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G53" s="84">
         <v>1980.0</v>
       </c>
       <c r="H53" s="55" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I53" s="69" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J53" s="72" t="s">
         <v>49</v>
@@ -4203,13 +4246,14 @@
       <c r="P53" s="30"/>
       <c r="Q53" s="35"/>
       <c r="R53" s="35"/>
-      <c r="S53" s="25" t="s">
+      <c r="S53" s="35"/>
+      <c r="T53" s="25" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="62" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B54" s="5">
         <f t="shared" si="1"/>
@@ -4222,7 +4266,7 @@
         <v>45</v>
       </c>
       <c r="E54" s="64" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F54" s="62" t="s">
         <v>64</v>
@@ -4231,10 +4275,10 @@
         <v>1990.0</v>
       </c>
       <c r="H54" s="22" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I54" s="62" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J54" s="62" t="s">
         <v>49</v>
@@ -4251,38 +4295,39 @@
       <c r="P54" s="30"/>
       <c r="Q54" s="35"/>
       <c r="R54" s="35"/>
-      <c r="S54" s="25" t="s">
+      <c r="S54" s="35"/>
+      <c r="T54" s="25" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="62" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B55" s="5">
         <f t="shared" si="1"/>
         <v>446</v>
       </c>
       <c r="C55" s="68" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D55" s="62" t="s">
         <v>45</v>
       </c>
       <c r="E55" s="64" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F55" s="62" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G55" s="62">
         <v>1943.0</v>
       </c>
       <c r="H55" s="75" t="s">
+        <v>251</v>
+      </c>
+      <c r="I55" s="62" t="s">
         <v>252</v>
-      </c>
-      <c r="I55" s="62" t="s">
-        <v>253</v>
       </c>
       <c r="J55" s="85" t="s">
         <v>49</v>
@@ -4299,15 +4344,16 @@
       <c r="P55" s="30"/>
       <c r="Q55" s="25"/>
       <c r="R55" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="S55" s="25"/>
+      <c r="T55" s="25" t="s">
         <v>254</v>
-      </c>
-      <c r="S55" s="25" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="62" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B56" s="5">
         <f t="shared" si="1"/>
@@ -4317,22 +4363,22 @@
         <v>45</v>
       </c>
       <c r="D56" s="62" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E56" s="64" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F56" s="62" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G56" s="62">
         <v>2021.0</v>
       </c>
       <c r="H56" s="75" t="s">
+        <v>256</v>
+      </c>
+      <c r="I56" s="62" t="s">
         <v>257</v>
-      </c>
-      <c r="I56" s="62" t="s">
-        <v>258</v>
       </c>
       <c r="J56" s="62" t="s">
         <v>49</v>
@@ -4349,41 +4395,42 @@
       <c r="P56" s="30"/>
       <c r="Q56" s="35"/>
       <c r="R56" s="35"/>
-      <c r="S56" s="25" t="s">
+      <c r="S56" s="35"/>
+      <c r="T56" s="25" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="62" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B57" s="5">
         <f t="shared" si="1"/>
         <v>454</v>
       </c>
       <c r="C57" s="68" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D57" s="62" t="s">
         <v>45</v>
       </c>
       <c r="E57" s="64" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F57" s="61" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G57" s="62">
         <v>1996.0</v>
       </c>
       <c r="H57" s="55" t="s">
+        <v>260</v>
+      </c>
+      <c r="I57" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="I57" s="62" t="s">
-        <v>262</v>
-      </c>
       <c r="J57" s="62" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K57" s="28">
         <v>44696.0</v>
@@ -4397,41 +4444,42 @@
       <c r="P57" s="30"/>
       <c r="Q57" s="35"/>
       <c r="R57" s="35"/>
-      <c r="S57" s="25" t="s">
-        <v>100</v>
+      <c r="S57" s="35"/>
+      <c r="T57" s="25" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="62" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B58" s="5">
         <f t="shared" si="1"/>
-        <v>904</v>
+        <v>808</v>
       </c>
       <c r="C58" s="68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D58" s="62" t="s">
         <v>45</v>
       </c>
       <c r="E58" s="64" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F58" s="62" t="s">
+        <v>263</v>
+      </c>
+      <c r="G58" s="22" t="s">
         <v>264</v>
       </c>
-      <c r="G58" s="22" t="s">
+      <c r="H58" s="55" t="s">
         <v>265</v>
       </c>
-      <c r="H58" s="55" t="s">
+      <c r="I58" s="69" t="s">
         <v>266</v>
       </c>
-      <c r="I58" s="69" t="s">
+      <c r="J58" s="62" t="s">
         <v>267</v>
-      </c>
-      <c r="J58" s="62" t="s">
-        <v>268</v>
       </c>
       <c r="K58" s="28">
         <v>44697.0</v>
@@ -4445,15 +4493,16 @@
       <c r="P58" s="30"/>
       <c r="Q58" s="25"/>
       <c r="R58" s="39" t="s">
-        <v>269</v>
-      </c>
-      <c r="S58" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="S58" s="39"/>
+      <c r="T58" s="25" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="62" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B59" s="5">
         <f t="shared" si="1"/>
@@ -4466,19 +4515,19 @@
         <v>45</v>
       </c>
       <c r="E59" s="64" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F59" s="62" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G59" s="69">
         <v>1992.0</v>
       </c>
       <c r="H59" s="55" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I59" s="69" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J59" s="62" t="s">
         <v>49</v>
@@ -4495,38 +4544,39 @@
       <c r="P59" s="30"/>
       <c r="Q59" s="35"/>
       <c r="R59" s="35"/>
-      <c r="S59" s="25" t="s">
+      <c r="S59" s="35"/>
+      <c r="T59" s="25" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="62" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B60" s="5">
         <f t="shared" si="1"/>
         <v>455</v>
       </c>
       <c r="C60" s="68" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D60" s="62" t="s">
         <v>45</v>
       </c>
       <c r="E60" s="64" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F60" s="62" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G60" s="69">
         <v>1976.0</v>
       </c>
       <c r="H60" s="55" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I60" s="69" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J60" s="62" t="s">
         <v>49</v>
@@ -4543,13 +4593,14 @@
       <c r="P60" s="29"/>
       <c r="Q60" s="37"/>
       <c r="R60" s="37"/>
-      <c r="S60" s="25" t="s">
-        <v>110</v>
+      <c r="S60" s="37"/>
+      <c r="T60" s="25" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="62" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B61" s="5">
         <f t="shared" si="1"/>
@@ -4560,19 +4611,19 @@
         <v>45</v>
       </c>
       <c r="E61" s="64" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F61" s="62" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G61" s="69">
         <v>1991.0</v>
       </c>
       <c r="H61" s="55" t="s">
+        <v>276</v>
+      </c>
+      <c r="I61" s="69" t="s">
         <v>277</v>
-      </c>
-      <c r="I61" s="69" t="s">
-        <v>278</v>
       </c>
       <c r="J61" s="62" t="s">
         <v>49</v>
@@ -4589,13 +4640,14 @@
       <c r="P61" s="30"/>
       <c r="Q61" s="35"/>
       <c r="R61" s="35"/>
-      <c r="S61" s="25" t="s">
+      <c r="S61" s="35"/>
+      <c r="T61" s="25" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="62" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B62" s="5">
         <f t="shared" si="1"/>
@@ -4607,16 +4659,16 @@
       <c r="D62" s="62"/>
       <c r="E62" s="86"/>
       <c r="F62" s="62" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G62" s="69">
         <v>1980.0</v>
       </c>
       <c r="H62" s="55" t="s">
+        <v>280</v>
+      </c>
+      <c r="I62" s="64" t="s">
         <v>281</v>
-      </c>
-      <c r="I62" s="64" t="s">
-        <v>282</v>
       </c>
       <c r="J62" s="62" t="s">
         <v>49</v>
@@ -4633,13 +4685,14 @@
       <c r="P62" s="30"/>
       <c r="Q62" s="35"/>
       <c r="R62" s="35"/>
-      <c r="S62" s="25" t="s">
+      <c r="S62" s="35"/>
+      <c r="T62" s="25" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="62" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B63" s="5">
         <f t="shared" si="1"/>
@@ -4652,7 +4705,7 @@
         <v>45</v>
       </c>
       <c r="E63" s="64" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F63" s="62" t="s">
         <v>64</v>
@@ -4661,13 +4714,13 @@
         <v>1994.0</v>
       </c>
       <c r="H63" s="55" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I63" s="64" t="s">
         <v>60</v>
       </c>
       <c r="J63" s="62" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K63" s="70">
         <v>44701.0</v>
@@ -4681,13 +4734,14 @@
       <c r="P63" s="30"/>
       <c r="Q63" s="35"/>
       <c r="R63" s="35"/>
-      <c r="S63" s="25" t="s">
+      <c r="S63" s="35"/>
+      <c r="T63" s="25" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="62" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B64" s="87">
         <f t="shared" si="1"/>
@@ -4699,19 +4753,19 @@
       <c r="D64" s="62"/>
       <c r="E64" s="64"/>
       <c r="F64" s="62" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G64" s="69">
         <v>1977.0</v>
       </c>
       <c r="H64" s="55" t="s">
+        <v>286</v>
+      </c>
+      <c r="I64" s="64" t="s">
         <v>287</v>
       </c>
-      <c r="I64" s="64" t="s">
-        <v>288</v>
-      </c>
       <c r="J64" s="62" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K64" s="70">
         <v>44701.0</v>
@@ -4725,39 +4779,40 @@
       <c r="P64" s="30"/>
       <c r="Q64" s="35"/>
       <c r="R64" s="25" t="s">
-        <v>289</v>
-      </c>
-      <c r="S64" s="25" t="s">
-        <v>255</v>
+        <v>288</v>
+      </c>
+      <c r="S64" s="25"/>
+      <c r="T64" s="25" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="62" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B65" s="5">
         <f t="shared" si="1"/>
         <v>467</v>
       </c>
       <c r="C65" s="64" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D65" s="62"/>
       <c r="E65" s="86"/>
       <c r="F65" s="62" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G65" s="69">
         <v>1997.0</v>
       </c>
       <c r="H65" s="55" t="s">
+        <v>291</v>
+      </c>
+      <c r="I65" s="64" t="s">
         <v>292</v>
       </c>
-      <c r="I65" s="64" t="s">
-        <v>293</v>
-      </c>
       <c r="J65" s="62" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K65" s="88">
         <v>44703.0</v>
@@ -4771,41 +4826,42 @@
       <c r="P65" s="30"/>
       <c r="Q65" s="35"/>
       <c r="R65" s="35"/>
-      <c r="S65" s="25" t="s">
-        <v>100</v>
+      <c r="S65" s="35"/>
+      <c r="T65" s="25" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="62" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B66" s="5">
         <f t="shared" si="1"/>
         <v>460</v>
       </c>
       <c r="C66" s="64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D66" s="62" t="s">
         <v>45</v>
       </c>
       <c r="E66" s="64" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F66" s="62" t="s">
+        <v>294</v>
+      </c>
+      <c r="G66" s="69" t="s">
         <v>295</v>
       </c>
-      <c r="G66" s="69" t="s">
+      <c r="H66" s="55" t="s">
         <v>296</v>
       </c>
-      <c r="H66" s="55" t="s">
+      <c r="I66" s="64" t="s">
         <v>297</v>
       </c>
-      <c r="I66" s="64" t="s">
-        <v>298</v>
-      </c>
       <c r="J66" s="62" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K66" s="28">
         <v>44704.0</v>
@@ -4818,16 +4874,15 @@
       <c r="O66" s="30"/>
       <c r="P66" s="30"/>
       <c r="Q66" s="25"/>
-      <c r="R66" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="S66" s="25" t="s">
+      <c r="R66" s="25"/>
+      <c r="S66" s="25"/>
+      <c r="T66" s="25" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="62" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B67" s="5">
         <f t="shared" si="1"/>
@@ -4840,22 +4895,22 @@
         <v>45</v>
       </c>
       <c r="E67" s="64" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F67" s="62" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G67" s="69">
         <v>1992.0</v>
       </c>
       <c r="H67" s="55" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I67" s="64" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J67" s="62" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K67" s="28">
         <v>44705.0</v>
@@ -4869,41 +4924,42 @@
       <c r="P67" s="30"/>
       <c r="Q67" s="35"/>
       <c r="R67" s="35"/>
-      <c r="S67" s="25" t="s">
+      <c r="S67" s="35"/>
+      <c r="T67" s="25" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="62" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B68" s="5">
         <f t="shared" si="1"/>
         <v>443</v>
       </c>
       <c r="C68" s="64" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D68" s="64" t="s">
         <v>45</v>
       </c>
       <c r="E68" s="64" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F68" s="62" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G68" s="69">
         <v>1987.0</v>
       </c>
       <c r="H68" s="55" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I68" s="64" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J68" s="62" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K68" s="28">
         <v>44706.0</v>
@@ -4917,13 +4973,14 @@
       <c r="P68" s="30"/>
       <c r="Q68" s="35"/>
       <c r="R68" s="35"/>
-      <c r="S68" s="25" t="s">
-        <v>110</v>
+      <c r="S68" s="35"/>
+      <c r="T68" s="25" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="62" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B69" s="5">
         <f t="shared" si="1"/>
@@ -4934,22 +4991,22 @@
         <v>45</v>
       </c>
       <c r="E69" s="64" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F69" s="62" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G69" s="69">
         <v>2008.0</v>
       </c>
       <c r="H69" s="55" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I69" s="64" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J69" s="62" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K69" s="28">
         <v>44707.0</v>
@@ -4963,38 +5020,39 @@
       <c r="P69" s="30"/>
       <c r="Q69" s="35"/>
       <c r="R69" s="35"/>
-      <c r="S69" s="25" t="s">
+      <c r="S69" s="35"/>
+      <c r="T69" s="25" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="62" t="s">
+        <v>306</v>
+      </c>
+      <c r="B70" s="5">
+        <f t="shared" si="1"/>
+        <v>560</v>
+      </c>
+      <c r="C70" s="64" t="s">
         <v>307</v>
-      </c>
-      <c r="B70" s="5">
-        <f t="shared" si="1"/>
-        <v>560</v>
-      </c>
-      <c r="C70" s="64" t="s">
-        <v>308</v>
       </c>
       <c r="D70" s="64" t="s">
         <v>45</v>
       </c>
       <c r="E70" s="64" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F70" s="62" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G70" s="69">
         <v>1970.0</v>
       </c>
       <c r="H70" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="I70" s="64" t="s">
         <v>310</v>
-      </c>
-      <c r="I70" s="64" t="s">
-        <v>311</v>
       </c>
       <c r="J70" s="62" t="s">
         <v>49</v>
@@ -5011,13 +5069,14 @@
       <c r="P70" s="30"/>
       <c r="Q70" s="35"/>
       <c r="R70" s="35"/>
-      <c r="S70" s="25" t="s">
+      <c r="S70" s="35"/>
+      <c r="T70" s="25" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="62" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B71" s="5">
         <f t="shared" si="1"/>
@@ -5030,7 +5089,7 @@
         <v>45</v>
       </c>
       <c r="E71" s="64" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F71" s="62" t="s">
         <v>64</v>
@@ -5039,10 +5098,10 @@
         <v>1995.0</v>
       </c>
       <c r="H71" s="55" t="s">
+        <v>312</v>
+      </c>
+      <c r="I71" s="64" t="s">
         <v>313</v>
-      </c>
-      <c r="I71" s="64" t="s">
-        <v>314</v>
       </c>
       <c r="J71" s="62" t="s">
         <v>49</v>
@@ -5059,38 +5118,39 @@
       <c r="P71" s="30"/>
       <c r="Q71" s="35"/>
       <c r="R71" s="35"/>
-      <c r="S71" s="25" t="s">
+      <c r="S71" s="35"/>
+      <c r="T71" s="25" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="62" t="s">
+        <v>314</v>
+      </c>
+      <c r="B72" s="5">
+        <f t="shared" si="1"/>
+        <v>495</v>
+      </c>
+      <c r="C72" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="D72" s="64" t="s">
         <v>315</v>
       </c>
-      <c r="B72" s="5">
-        <f t="shared" si="1"/>
-        <v>495</v>
-      </c>
-      <c r="C72" s="64" t="s">
-        <v>35</v>
-      </c>
-      <c r="D72" s="64" t="s">
+      <c r="E72" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="F72" s="62" t="s">
         <v>316</v>
-      </c>
-      <c r="E72" s="64" t="s">
-        <v>28</v>
-      </c>
-      <c r="F72" s="62" t="s">
-        <v>317</v>
       </c>
       <c r="G72" s="69">
         <v>2016.0</v>
       </c>
       <c r="H72" s="55" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I72" s="64" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J72" s="62" t="s">
         <v>49</v>
@@ -5107,36 +5167,37 @@
       <c r="P72" s="30"/>
       <c r="Q72" s="35"/>
       <c r="R72" s="25" t="s">
-        <v>319</v>
-      </c>
-      <c r="S72" s="25" t="s">
-        <v>255</v>
+        <v>318</v>
+      </c>
+      <c r="S72" s="25"/>
+      <c r="T72" s="25" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="62" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B73" s="5">
         <f t="shared" si="1"/>
         <v>437</v>
       </c>
       <c r="C73" s="64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D73" s="86"/>
       <c r="E73" s="86"/>
       <c r="F73" s="62" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G73" s="69">
         <v>2022.0</v>
       </c>
       <c r="H73" s="55" t="s">
+        <v>321</v>
+      </c>
+      <c r="I73" s="64" t="s">
         <v>322</v>
-      </c>
-      <c r="I73" s="64" t="s">
-        <v>323</v>
       </c>
       <c r="J73" s="62" t="s">
         <v>49</v>
@@ -5153,43 +5214,44 @@
       <c r="P73" s="30"/>
       <c r="Q73" s="35"/>
       <c r="R73" s="25" t="s">
-        <v>324</v>
-      </c>
-      <c r="S73" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="S73" s="25"/>
+      <c r="T73" s="25" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="62" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B74" s="5">
         <f t="shared" si="1"/>
         <v>460</v>
       </c>
       <c r="C74" s="64" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D74" s="64" t="s">
         <v>45</v>
       </c>
       <c r="E74" s="64" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F74" s="62" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G74" s="69">
         <v>2007.0</v>
       </c>
       <c r="H74" s="55" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I74" s="64" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J74" s="62" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K74" s="28">
         <v>44710.0</v>
@@ -5203,8 +5265,9 @@
       <c r="P74" s="30"/>
       <c r="Q74" s="35"/>
       <c r="R74" s="35"/>
-      <c r="S74" s="25" t="s">
-        <v>100</v>
+      <c r="S74" s="35"/>
+      <c r="T74" s="25" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -5296,13 +5359,13 @@
   <sheetData>
     <row r="1" ht="33.75" customHeight="1">
       <c r="A1" s="89" t="s">
+        <v>327</v>
+      </c>
+      <c r="B1" s="89" t="s">
         <v>328</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="C1" s="89" t="s">
         <v>329</v>
-      </c>
-      <c r="C1" s="89" t="s">
-        <v>330</v>
       </c>
       <c r="D1" s="90" t="s">
         <v>3</v>
@@ -5311,18 +5374,18 @@
         <v>4</v>
       </c>
       <c r="F1" s="89" t="s">
+        <v>330</v>
+      </c>
+      <c r="G1" s="89" t="s">
         <v>331</v>
       </c>
-      <c r="G1" s="89" t="s">
-        <v>332</v>
-      </c>
       <c r="H1" s="89" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" ht="65.25" customHeight="1">
       <c r="A2" s="91" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B2" s="92">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F2="""","""",COUNTA(SPLIT(F2,"" "")))"),107.0)</f>
@@ -5332,43 +5395,43 @@
         <v>45</v>
       </c>
       <c r="D2" s="93" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" s="94" t="s">
+        <v>333</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>334</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="95" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B3" s="92">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F3="""","""",COUNTA(SPLIT(F3,"" "")))"),159.0)</f>
         <v>159</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D3" s="96" t="s">
         <v>45</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3" s="95" t="s">
+        <v>337</v>
+      </c>
+      <c r="G3" s="23" t="s">
         <v>338</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>75</v>
       </c>
       <c r="H3" s="23" t="s">
         <v>42</v>
@@ -5389,7 +5452,7 @@
         <v>45</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4" s="95" t="s">
         <v>341</v>
@@ -5414,14 +5477,14 @@
         <v>45</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" s="23" t="s">
         <v>344</v>
       </c>
       <c r="G5" s="99"/>
       <c r="H5" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6">
@@ -5439,7 +5502,7 @@
         <v>45</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6" s="95" t="s">
         <v>347</v>
@@ -5464,7 +5527,7 @@
         <v>45</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F7" s="101" t="s">
         <v>350</v>
@@ -5489,7 +5552,7 @@
         <v>353</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F8" s="95" t="s">
         <v>354</v>
@@ -5512,7 +5575,7 @@
         <v>45</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" s="102"/>
       <c r="G9" s="23"/>
@@ -5535,14 +5598,14 @@
         <v>45</v>
       </c>
       <c r="E10" s="104" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F10" s="105" t="s">
         <v>358</v>
       </c>
       <c r="G10" s="99"/>
       <c r="H10" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11">
@@ -5558,12 +5621,12 @@
         <v>45</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F11" s="106"/>
       <c r="G11" s="99"/>
       <c r="H11" s="23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12">
